--- a/docs/assets/disciplinas/LOB1244.xlsx
+++ b/docs/assets/disciplinas/LOB1244.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar e analisar os conceitos básicos de monitoramento, suas aplicações práticas e as interfaces com os demais instrumentos de Política Ambiental.</t>
+    <t>5840938 - Marcelo Rodrigues de Holanda</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840938 - Marcelo Rodrigues de Holanda</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Monitoramento da qualidade ambiental.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Conceitos de qualidade ambiental, poluição, padrões de qualidade e de emissão. Conceito de monitoramento. Amostragem. Sistemas de monitoramento. Índices de qualidade. Monitoramento como parte integrante de sistema de gestão ambiental.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,30 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aula expositiva e exercícios dirigidos.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada de exercícios e provas.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Prova única com nota igual ou superior a 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Porto, R.L.:. org.. Técnicas quantitativas para o gerenciamento de recursos hídricos. ABRH e Editora da Universidade. 1997.
-James, A. ed., Mathematical models in water pollution control. John Wiley &amp; Sons. 1989. 
-Mota, S.. Preservação e Conservação de Recursos Hídricos. ABES. 2a. edição. 1995.
-Sewell, G.H. Administração e controle de qualidade ambiental. EPU. 1998.
-Macknight, A. Handbook of techniques for aquatic sediments sampling. McGraw Hill 1999. 
-Loeb, A. Biological monitoring of aquatic systems. McGraw-Hill. 1998.</t>
   </si>
 </sst>
 </file>
@@ -485,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,93 +596,85 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1244.xlsx
+++ b/docs/assets/disciplinas/LOB1244.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar e analisar os conceitos básicos de monitoramento, suas aplicações práticas e as interfaces com os demais instrumentos de Política Ambiental.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840938 - Marcelo Rodrigues de Holanda</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Monitoramento da qualidade ambiental.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Conceitos de qualidade ambiental, poluição, padrões de qualidade e de emissão. Conceito de monitoramento. Amostragem. Sistemas de monitoramento. Índices de qualidade. Monitoramento como parte integrante de sistema de gestão ambiental.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,30 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aula expositiva e exercícios dirigidos.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aula expositiva e exercícios dirigidos.</t>
+    <t>Média ponderada de exercícios e provas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada de exercícios e provas.</t>
+    <t>Prova única com nota igual ou superior a 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Prova única com nota igual ou superior a 5,0.</t>
+    <t>Porto, R.L.:. org.. Técnicas quantitativas para o gerenciamento de recursos hídricos. ABRH e Editora da Universidade. 1997.
+James, A. ed., Mathematical models in water pollution control. John Wiley &amp; Sons. 1989. 
+Mota, S.. Preservação e Conservação de Recursos Hídricos. ABES. 2a. edição. 1995.
+Sewell, G.H. Administração e controle de qualidade ambiental. EPU. 1998.
+Macknight, A. Handbook of techniques for aquatic sediments sampling. McGraw Hill 1999. 
+Loeb, A. Biological monitoring of aquatic systems. McGraw-Hill. 1998.</t>
   </si>
 </sst>
 </file>
@@ -471,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -596,85 +610,93 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
